--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Boris A. Rodríguez.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Boris A. Rodríguez.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="470">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -9355,28 +9355,13 @@
       </c>
     </row>
     <row r="46" ht="15.6" customHeight="true">
-      <c r="Z46" s="100" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AA46" s="105" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AB46" s="105" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="AC46" s="102" t="n">
-        <v>8.0</v>
-      </c>
+      <c r="Z46" s="100"/>
+      <c r="AA46" s="105"/>
+      <c r="AB46" s="105"/>
+      <c r="AC46" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="T13:V13"/>
     <mergeCell ref="AA40:AC40"/>
     <mergeCell ref="AA33:AC33"/>
     <mergeCell ref="AA34:AC34"/>
@@ -9386,6 +9371,13 @@
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="T32:V32"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Boris A. Rodríguez.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Boris A. Rodríguez.xlsx
@@ -5703,7 +5703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="490">
+  <cellXfs count="492">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
@@ -6839,6 +6839,12 @@
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -7368,36 +7374,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="true"/>
-    <col min="2" max="2" width="6.77734375" customWidth="true"/>
-    <col min="3" max="3" width="6.77734375" customWidth="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true"/>
-    <col min="6" max="6" width="6.77734375" customWidth="true"/>
-    <col min="7" max="7" width="6.77734375" customWidth="true"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true"/>
-    <col min="9" max="9" width="2.77734375" customWidth="true"/>
-    <col min="10" max="10" width="6.77734375" customWidth="true"/>
-    <col min="11" max="11" width="6.77734375" customWidth="true"/>
-    <col min="12" max="12" width="6.77734375" customWidth="true"/>
-    <col min="13" max="13" width="6.77734375" customWidth="true"/>
-    <col min="14" max="14" width="6.77734375" customWidth="true"/>
-    <col min="15" max="15" width="6.77734375" customWidth="true"/>
-    <col min="16" max="16" width="6.77734375" customWidth="true"/>
-    <col min="17" max="17" width="2.77734375" customWidth="true"/>
-    <col min="18" max="18" width="6.77734375" customWidth="true"/>
-    <col min="19" max="19" width="6.77734375" customWidth="true"/>
-    <col min="20" max="20" width="6.77734375" customWidth="true"/>
-    <col min="21" max="21" width="6.77734375" customWidth="true"/>
-    <col min="22" max="22" width="6.77734375" customWidth="true"/>
-    <col min="23" max="23" width="6.77734375" customWidth="true"/>
-    <col min="24" max="24" width="6.77734375" customWidth="true"/>
-    <col min="25" max="25" width="10.0" customWidth="true"/>
-    <col min="26" max="26" width="6.0" customWidth="true"/>
-    <col min="27" max="27" width="21.77734375" customWidth="true"/>
-    <col min="28" max="28" width="21.77734375" customWidth="true"/>
-    <col min="29" max="29" width="21.77734375" customWidth="true"/>
-    <col min="30" max="30" width="10.0" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.8" customHeight="true">
@@ -9391,23 +9397,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -9987,23 +9993,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -10590,23 +10596,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11185,23 +11191,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11787,23 +11793,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11982,8 +11988,12 @@
       <c r="B18" s="127" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="128"/>
-      <c r="E18" s="128"/>
+      <c r="C18" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E18" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G18" s="125" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -11993,8 +12003,12 @@
       <c r="B19" s="127" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="128"/>
-      <c r="E19" s="128"/>
+      <c r="C19" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G19" s="125" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -12004,8 +12018,12 @@
       <c r="B20" s="127" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="128"/>
-      <c r="E20" s="128"/>
+      <c r="C20" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E20" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G20" s="125" t="n">
         <f>((E20-C20)*24)-1</f>
         <v>0.0</v>
@@ -12025,8 +12043,12 @@
       <c r="B22" s="127" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="128"/>
-      <c r="E22" s="128"/>
+      <c r="C22" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G22" s="125" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -12056,8 +12078,12 @@
       <c r="B25" s="127" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="128"/>
-      <c r="E25" s="128"/>
+      <c r="C25" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E25" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G25" s="125" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -12067,8 +12093,12 @@
       <c r="B26" s="127" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="128"/>
-      <c r="E26" s="128"/>
+      <c r="C26" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E26" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G26" s="125" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -12078,8 +12108,12 @@
       <c r="B27" s="127" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="128"/>
-      <c r="E27" s="128"/>
+      <c r="C27" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E27" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G27" s="125" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
@@ -12089,8 +12123,12 @@
       <c r="B28" s="127" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="128"/>
-      <c r="E28" s="128"/>
+      <c r="C28" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E28" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G28" s="125" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
@@ -12100,8 +12138,12 @@
       <c r="B29" s="127" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="128"/>
-      <c r="E29" s="128"/>
+      <c r="C29" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E29" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G29" s="125" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -12131,8 +12173,12 @@
       <c r="B32" s="127" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="128"/>
-      <c r="E32" s="128"/>
+      <c r="C32" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E32" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G32" s="125" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -12142,8 +12188,12 @@
       <c r="B33" s="127" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="128"/>
-      <c r="E33" s="128"/>
+      <c r="C33" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E33" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G33" s="125" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -12153,8 +12203,12 @@
       <c r="B34" s="127" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="128"/>
-      <c r="E34" s="128"/>
+      <c r="C34" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E34" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G34" s="125" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
@@ -12164,8 +12218,12 @@
       <c r="B35" s="127" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="128"/>
-      <c r="E35" s="128"/>
+      <c r="C35" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E35" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G35" s="125" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
@@ -12175,8 +12233,12 @@
       <c r="B36" s="127" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="128"/>
-      <c r="E36" s="128"/>
+      <c r="C36" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E36" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G36" s="125" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -12206,8 +12268,12 @@
       <c r="B39" s="127" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="128"/>
-      <c r="E39" s="128"/>
+      <c r="C39" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E39" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G39" s="125" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -12217,8 +12283,12 @@
       <c r="B40" s="127" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="128"/>
-      <c r="E40" s="128"/>
+      <c r="C40" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E40" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G40" s="125" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -12228,8 +12298,12 @@
       <c r="B41" s="127" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="128"/>
-      <c r="E41" s="128"/>
+      <c r="C41" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E41" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G41" s="125" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
@@ -12239,8 +12313,12 @@
       <c r="B42" s="127" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="128"/>
-      <c r="E42" s="128"/>
+      <c r="C42" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E42" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G42" s="125" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
@@ -12250,8 +12328,12 @@
       <c r="B43" s="127" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="128"/>
-      <c r="E43" s="128"/>
+      <c r="C43" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E43" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G43" s="125" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -12389,6 +12471,7 @@
       <c r="H62" s="139"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -12411,23 +12494,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13020,23 +13103,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13641,23 +13724,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -14253,23 +14336,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -14873,23 +14956,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -15471,23 +15554,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -16073,23 +16156,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Boris A. Rodríguez.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Boris A. Rodríguez.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.30.65.3\data\Fichajes\Palobiofarma, S.L Mataró\"/>
     </mc:Choice>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="118">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -392,6 +392,12 @@
   </si>
   <si>
     <t>31/10/2022</t>
+  </si>
+  <si>
+    <t>vacaciones</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
 </sst>
 </file>
@@ -4647,7 +4653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="489">
+  <cellXfs count="495">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5780,6 +5786,24 @@
     </xf>
     <xf numFmtId="14" fontId="470" fillId="12" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6683,22 +6707,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD46"/>
+  <dimension ref="B1:AC46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="8" width="6.81640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="2.81640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="16" width="6.81640625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="2.81640625" customWidth="1" collapsed="1"/>
-    <col min="18" max="24" width="6.81640625" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="10" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="6" customWidth="1" collapsed="1"/>
-    <col min="27" max="29" width="21.81640625" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="2.81640625" collapsed="true"/>
+    <col min="2" max="8" customWidth="true" width="6.81640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.81640625" collapsed="true"/>
+    <col min="10" max="16" customWidth="true" width="6.81640625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.81640625" collapsed="true"/>
+    <col min="18" max="24" customWidth="true" width="6.81640625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="27" max="29" customWidth="true" width="21.81640625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="25.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -8685,24 +8709,24 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -9265,24 +9289,24 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -9853,24 +9877,24 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -10432,24 +10456,24 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -11019,7 +11043,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C18" sqref="C18:E18"/>
@@ -11027,18 +11051,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -11712,7 +11736,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C43" sqref="C43:E43"/>
@@ -11720,18 +11744,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -12373,6 +12397,7 @@
       <c r="H62" s="403"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="B58:H62"/>
@@ -12389,24 +12414,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -12561,8 +12586,12 @@
       <c r="B16" s="161">
         <v>1</v>
       </c>
-      <c r="C16" s="162"/>
-      <c r="E16" s="162"/>
+      <c r="C16" s="493" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="493" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G16" s="159">
         <f>((E16-C16)*24)-1</f>
         <v>-1</v>
@@ -12572,8 +12601,12 @@
       <c r="B17" s="161">
         <v>2</v>
       </c>
-      <c r="C17" s="162"/>
-      <c r="E17" s="162"/>
+      <c r="C17" s="493" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E17" s="493" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G17" s="159">
         <f>((E17-C17)*24)-1</f>
         <v>-1</v>
@@ -12583,8 +12616,12 @@
       <c r="B18" s="161">
         <v>3</v>
       </c>
-      <c r="C18" s="162"/>
-      <c r="E18" s="162"/>
+      <c r="C18" s="493" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E18" s="493" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G18" s="159">
         <f>((E18-C18)*24)-1</f>
         <v>-1</v>
@@ -12594,8 +12631,12 @@
       <c r="B19" s="161">
         <v>4</v>
       </c>
-      <c r="C19" s="162"/>
-      <c r="E19" s="162"/>
+      <c r="C19" s="493" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="493" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G19" s="159">
         <f>((E19-C19)*24)-1</f>
         <v>-1</v>
@@ -12625,8 +12666,12 @@
       <c r="B22" s="161">
         <v>7</v>
       </c>
-      <c r="C22" s="162"/>
-      <c r="E22" s="162"/>
+      <c r="C22" s="493" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="493" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G22" s="159">
         <f>((E22-C22)*24)-1</f>
         <v>-1</v>
@@ -12636,8 +12681,12 @@
       <c r="B23" s="161">
         <v>8</v>
       </c>
-      <c r="C23" s="162"/>
-      <c r="E23" s="162"/>
+      <c r="C23" s="493" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E23" s="493" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G23" s="159">
         <f>((E23-C23)*24)-1</f>
         <v>-1</v>
@@ -12647,8 +12696,12 @@
       <c r="B24" s="161">
         <v>9</v>
       </c>
-      <c r="C24" s="162"/>
-      <c r="E24" s="162"/>
+      <c r="C24" s="493" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E24" s="493" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G24" s="159">
         <f>((E24-C24)*24)-1</f>
         <v>-1</v>
@@ -12658,8 +12711,12 @@
       <c r="B25" s="161">
         <v>10</v>
       </c>
-      <c r="C25" s="162"/>
-      <c r="E25" s="162"/>
+      <c r="C25" s="493" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E25" s="493" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G25" s="159">
         <f>((E25-C25)*24)-1</f>
         <v>-1</v>
@@ -12669,8 +12726,12 @@
       <c r="B26" s="161">
         <v>11</v>
       </c>
-      <c r="C26" s="162"/>
-      <c r="E26" s="162"/>
+      <c r="C26" s="493" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E26" s="493" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G26" s="159">
         <f>((E26-C26)*24)-1</f>
         <v>-1</v>
@@ -12700,8 +12761,12 @@
       <c r="B29" s="161">
         <v>14</v>
       </c>
-      <c r="C29" s="162"/>
-      <c r="E29" s="162"/>
+      <c r="C29" s="493" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E29" s="493" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G29" s="159">
         <f>((E29-C29)*24)-1</f>
         <v>-1</v>
@@ -12711,8 +12776,12 @@
       <c r="B30" s="161">
         <v>15</v>
       </c>
-      <c r="C30" s="162"/>
-      <c r="E30" s="162"/>
+      <c r="C30" s="493" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E30" s="493" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G30" s="159">
         <f>((E30-C30)*24)-1</f>
         <v>-1</v>
@@ -12722,8 +12791,12 @@
       <c r="B31" s="161">
         <v>16</v>
       </c>
-      <c r="C31" s="162"/>
-      <c r="E31" s="162"/>
+      <c r="C31" s="493" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E31" s="493" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G31" s="159">
         <f>((E31-C31)*24)-1</f>
         <v>-1</v>
@@ -12733,8 +12806,12 @@
       <c r="B32" s="161">
         <v>17</v>
       </c>
-      <c r="C32" s="162"/>
-      <c r="E32" s="162"/>
+      <c r="C32" s="493" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E32" s="493" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G32" s="159">
         <f>((E32-C32)*24)-1</f>
         <v>-1</v>
@@ -12744,8 +12821,12 @@
       <c r="B33" s="161">
         <v>18</v>
       </c>
-      <c r="C33" s="162"/>
-      <c r="E33" s="162"/>
+      <c r="C33" s="493" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E33" s="493" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G33" s="159">
         <f>((E33-C33)*24)-1</f>
         <v>-1</v>
@@ -12775,8 +12856,12 @@
       <c r="B36" s="161">
         <v>21</v>
       </c>
-      <c r="C36" s="162"/>
-      <c r="E36" s="162"/>
+      <c r="C36" s="493" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E36" s="493" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G36" s="159">
         <f>((E36-C36)*24)-1</f>
         <v>-1</v>
@@ -12786,8 +12871,12 @@
       <c r="B37" s="161">
         <v>22</v>
       </c>
-      <c r="C37" s="162"/>
-      <c r="E37" s="162"/>
+      <c r="C37" s="493" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E37" s="493" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G37" s="159">
         <f>((E37-C37)*24)-1</f>
         <v>-1</v>
@@ -12797,8 +12886,12 @@
       <c r="B38" s="161">
         <v>23</v>
       </c>
-      <c r="C38" s="162"/>
-      <c r="E38" s="162"/>
+      <c r="C38" s="493" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E38" s="493" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G38" s="159">
         <f>((E38-C38)*24)-1</f>
         <v>-1</v>
@@ -12808,8 +12901,12 @@
       <c r="B39" s="161">
         <v>24</v>
       </c>
-      <c r="C39" s="162"/>
-      <c r="E39" s="162"/>
+      <c r="C39" s="493" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E39" s="493" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G39" s="159">
         <f>((E39-C39)*24)-1</f>
         <v>-1</v>
@@ -12819,8 +12916,12 @@
       <c r="B40" s="161">
         <v>25</v>
       </c>
-      <c r="C40" s="162"/>
-      <c r="E40" s="162"/>
+      <c r="C40" s="493" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E40" s="493" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G40" s="159">
         <f>((E40-C40)*24)-1</f>
         <v>-1</v>
@@ -12850,8 +12951,12 @@
       <c r="B43" s="161">
         <v>28</v>
       </c>
-      <c r="C43" s="162"/>
-      <c r="E43" s="162"/>
+      <c r="C43" s="493" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E43" s="493" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G43" s="159">
         <f>((E43-C43)*24)-1</f>
         <v>-1</v>
@@ -12861,8 +12966,12 @@
       <c r="B44" s="161">
         <v>29</v>
       </c>
-      <c r="C44" s="162"/>
-      <c r="E44" s="162"/>
+      <c r="C44" s="493" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E44" s="493" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G44" s="159">
         <f>((E44-C44)*24)-1</f>
         <v>-1</v>
@@ -12872,8 +12981,12 @@
       <c r="B45" s="161">
         <v>30</v>
       </c>
-      <c r="C45" s="162"/>
-      <c r="E45" s="162"/>
+      <c r="C45" s="493" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E45" s="493" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G45" s="159">
         <f>((E45-C45)*24)-1</f>
         <v>-1</v>
@@ -12883,11 +12996,14 @@
       <c r="B46" s="161">
         <v>31</v>
       </c>
-      <c r="C46" s="162"/>
-      <c r="E46" s="162"/>
-      <c r="G46" s="159">
-        <f>((E46-C46)*24)-1</f>
-        <v>-1</v>
+      <c r="C46" s="490" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="490" t="s">
+        <v>116</v>
+      </c>
+      <c r="G46" s="159" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -12979,6 +13095,7 @@
       <c r="H62" s="409"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -12995,24 +13112,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -13167,8 +13284,12 @@
       <c r="B16" s="186">
         <v>1</v>
       </c>
-      <c r="C16" s="187"/>
-      <c r="E16" s="187"/>
+      <c r="C16" s="492" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="492" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G16" s="184">
         <f>((E16-C16)*24)-1</f>
         <v>-1</v>
@@ -13198,8 +13319,12 @@
       <c r="B19" s="186">
         <v>4</v>
       </c>
-      <c r="C19" s="187"/>
-      <c r="E19" s="187"/>
+      <c r="C19" s="492" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="492" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G19" s="184">
         <f>((E19-C19)*24)-1</f>
         <v>-1</v>
@@ -13209,8 +13334,12 @@
       <c r="B20" s="186">
         <v>5</v>
       </c>
-      <c r="C20" s="187"/>
-      <c r="E20" s="187"/>
+      <c r="C20" s="492" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E20" s="492" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G20" s="184">
         <f>((E20-C20)*24)-1</f>
         <v>-1</v>
@@ -13220,8 +13349,12 @@
       <c r="B21" s="186">
         <v>6</v>
       </c>
-      <c r="C21" s="187"/>
-      <c r="E21" s="187"/>
+      <c r="C21" s="492" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E21" s="492" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G21" s="184">
         <f>((E21-C21)*24)-1</f>
         <v>-1</v>
@@ -13231,8 +13364,12 @@
       <c r="B22" s="186">
         <v>7</v>
       </c>
-      <c r="C22" s="187"/>
-      <c r="E22" s="187"/>
+      <c r="C22" s="492" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="492" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G22" s="184">
         <f>((E22-C22)*24)-1</f>
         <v>-1</v>
@@ -13242,8 +13379,12 @@
       <c r="B23" s="186">
         <v>8</v>
       </c>
-      <c r="C23" s="187"/>
-      <c r="E23" s="187"/>
+      <c r="C23" s="492" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E23" s="492" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G23" s="184">
         <f>((E23-C23)*24)-1</f>
         <v>-1</v>
@@ -13273,41 +13414,54 @@
       <c r="B26" s="186">
         <v>11</v>
       </c>
-      <c r="C26" s="187"/>
-      <c r="E26" s="187"/>
-      <c r="G26" s="184">
-        <f>((E26-C26)*24)-1</f>
-        <v>-1</v>
+      <c r="C26" s="187" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="187" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="184" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="186">
         <v>12</v>
       </c>
-      <c r="C27" s="187"/>
-      <c r="E27" s="187"/>
-      <c r="G27" s="184">
-        <f>((E27-C27)*24)-1</f>
-        <v>-1</v>
+      <c r="C27" s="187" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="187" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="184" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="186">
         <v>13</v>
       </c>
-      <c r="C28" s="187"/>
-      <c r="E28" s="187"/>
-      <c r="G28" s="184">
-        <f>((E28-C28)*24)-1</f>
-        <v>-1</v>
+      <c r="C28" s="187" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="187" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="184" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="186">
         <v>14</v>
       </c>
-      <c r="C29" s="187"/>
-      <c r="E29" s="187"/>
+      <c r="C29" s="492" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E29" s="492" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G29" s="184">
         <f>((E29-C29)*24)-1</f>
         <v>-1</v>
@@ -13357,8 +13511,12 @@
       <c r="B34" s="186">
         <v>19</v>
       </c>
-      <c r="C34" s="187"/>
-      <c r="E34" s="187"/>
+      <c r="C34" s="492" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E34" s="492" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G34" s="184">
         <f>((E34-C34)*24)-1</f>
         <v>-1</v>
@@ -13368,8 +13526,12 @@
       <c r="B35" s="186">
         <v>20</v>
       </c>
-      <c r="C35" s="187"/>
-      <c r="E35" s="187"/>
+      <c r="C35" s="492" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E35" s="492" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G35" s="184">
         <f>((E35-C35)*24)-1</f>
         <v>-1</v>
@@ -13379,8 +13541,12 @@
       <c r="B36" s="186">
         <v>21</v>
       </c>
-      <c r="C36" s="187"/>
-      <c r="E36" s="187"/>
+      <c r="C36" s="492" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E36" s="492" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G36" s="184">
         <f>((E36-C36)*24)-1</f>
         <v>-1</v>
@@ -13390,8 +13556,12 @@
       <c r="B37" s="186">
         <v>22</v>
       </c>
-      <c r="C37" s="187"/>
-      <c r="E37" s="187"/>
+      <c r="C37" s="492" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E37" s="492" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G37" s="184">
         <f>((E37-C37)*24)-1</f>
         <v>-1</v>
@@ -13421,8 +13591,12 @@
       <c r="B40" s="186">
         <v>25</v>
       </c>
-      <c r="C40" s="187"/>
-      <c r="E40" s="187"/>
+      <c r="C40" s="492" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E40" s="492" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G40" s="184">
         <f>((E40-C40)*24)-1</f>
         <v>-1</v>
@@ -13432,8 +13606,12 @@
       <c r="B41" s="186">
         <v>26</v>
       </c>
-      <c r="C41" s="187"/>
-      <c r="E41" s="187"/>
+      <c r="C41" s="492" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E41" s="492" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G41" s="184">
         <f>((E41-C41)*24)-1</f>
         <v>-1</v>
@@ -13443,8 +13621,12 @@
       <c r="B42" s="186">
         <v>27</v>
       </c>
-      <c r="C42" s="187"/>
-      <c r="E42" s="187"/>
+      <c r="C42" s="492" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E42" s="492" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G42" s="184">
         <f>((E42-C42)*24)-1</f>
         <v>-1</v>
@@ -13454,8 +13636,12 @@
       <c r="B43" s="186">
         <v>28</v>
       </c>
-      <c r="C43" s="187"/>
-      <c r="E43" s="187"/>
+      <c r="C43" s="492" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E43" s="492" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G43" s="184">
         <f>((E43-C43)*24)-1</f>
         <v>-1</v>
@@ -13465,8 +13651,12 @@
       <c r="B44" s="186">
         <v>29</v>
       </c>
-      <c r="C44" s="187"/>
-      <c r="E44" s="187"/>
+      <c r="C44" s="492" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E44" s="492" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G44" s="184">
         <f>((E44-C44)*24)-1</f>
         <v>-1</v>
@@ -13576,6 +13766,7 @@
       <c r="H62" s="417"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -13592,24 +13783,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -13774,8 +13965,12 @@
       <c r="B17" s="211">
         <v>2</v>
       </c>
-      <c r="C17" s="212"/>
-      <c r="E17" s="212"/>
+      <c r="C17" s="494" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E17" s="494" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G17" s="209">
         <f>((E17-C17)*24)-1</f>
         <v>-1</v>
@@ -13785,8 +13980,12 @@
       <c r="B18" s="211">
         <v>3</v>
       </c>
-      <c r="C18" s="212"/>
-      <c r="E18" s="212"/>
+      <c r="C18" s="494" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E18" s="494" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G18" s="209">
         <f>((E18-C18)*24)-1</f>
         <v>-1</v>
@@ -13796,8 +13995,12 @@
       <c r="B19" s="211">
         <v>4</v>
       </c>
-      <c r="C19" s="212"/>
-      <c r="E19" s="212"/>
+      <c r="C19" s="494" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="494" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G19" s="209">
         <f>((E19-C19)*24)-1</f>
         <v>-1</v>
@@ -13807,8 +14010,12 @@
       <c r="B20" s="211">
         <v>5</v>
       </c>
-      <c r="C20" s="212"/>
-      <c r="E20" s="212"/>
+      <c r="C20" s="494" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E20" s="494" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G20" s="209">
         <f>((E20-C20)*24)-1</f>
         <v>-1</v>
@@ -13818,8 +14025,12 @@
       <c r="B21" s="211">
         <v>6</v>
       </c>
-      <c r="C21" s="212"/>
-      <c r="E21" s="212"/>
+      <c r="C21" s="494" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E21" s="494" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G21" s="209">
         <f>((E21-C21)*24)-1</f>
         <v>-1</v>
@@ -13849,8 +14060,12 @@
       <c r="B24" s="211">
         <v>9</v>
       </c>
-      <c r="C24" s="212"/>
-      <c r="E24" s="212"/>
+      <c r="C24" s="494" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E24" s="494" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G24" s="209">
         <f>((E24-C24)*24)-1</f>
         <v>-1</v>
@@ -13860,8 +14075,12 @@
       <c r="B25" s="211">
         <v>10</v>
       </c>
-      <c r="C25" s="212"/>
-      <c r="E25" s="212"/>
+      <c r="C25" s="494" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E25" s="494" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G25" s="209">
         <f>((E25-C25)*24)-1</f>
         <v>-1</v>
@@ -13871,8 +14090,12 @@
       <c r="B26" s="211">
         <v>11</v>
       </c>
-      <c r="C26" s="212"/>
-      <c r="E26" s="212"/>
+      <c r="C26" s="494" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E26" s="494" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G26" s="209">
         <f>((E26-C26)*24)-1</f>
         <v>-1</v>
@@ -13882,8 +14105,12 @@
       <c r="B27" s="211">
         <v>12</v>
       </c>
-      <c r="C27" s="212"/>
-      <c r="E27" s="212"/>
+      <c r="C27" s="494" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E27" s="494" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G27" s="209">
         <f>((E27-C27)*24)-1</f>
         <v>-1</v>
@@ -13893,8 +14120,12 @@
       <c r="B28" s="211">
         <v>13</v>
       </c>
-      <c r="C28" s="212"/>
-      <c r="E28" s="212"/>
+      <c r="C28" s="494" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E28" s="494" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G28" s="209">
         <f>((E28-C28)*24)-1</f>
         <v>-1</v>
@@ -13924,8 +14155,12 @@
       <c r="B31" s="211">
         <v>16</v>
       </c>
-      <c r="C31" s="212"/>
-      <c r="E31" s="212"/>
+      <c r="C31" s="494" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E31" s="494" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G31" s="209">
         <f>((E31-C31)*24)-1</f>
         <v>-1</v>
@@ -13935,8 +14170,12 @@
       <c r="B32" s="211">
         <v>17</v>
       </c>
-      <c r="C32" s="212"/>
-      <c r="E32" s="212"/>
+      <c r="C32" s="494" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E32" s="494" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G32" s="209">
         <f>((E32-C32)*24)-1</f>
         <v>-1</v>
@@ -13946,8 +14185,12 @@
       <c r="B33" s="211">
         <v>18</v>
       </c>
-      <c r="C33" s="212"/>
-      <c r="E33" s="212"/>
+      <c r="C33" s="494" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E33" s="494" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G33" s="209">
         <f>((E33-C33)*24)-1</f>
         <v>-1</v>
@@ -13957,8 +14200,12 @@
       <c r="B34" s="211">
         <v>19</v>
       </c>
-      <c r="C34" s="212"/>
-      <c r="E34" s="212"/>
+      <c r="C34" s="494" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E34" s="494" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G34" s="209">
         <f>((E34-C34)*24)-1</f>
         <v>-1</v>
@@ -13968,8 +14215,12 @@
       <c r="B35" s="211">
         <v>20</v>
       </c>
-      <c r="C35" s="212"/>
-      <c r="E35" s="212"/>
+      <c r="C35" s="494" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E35" s="494" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G35" s="209">
         <f>((E35-C35)*24)-1</f>
         <v>-1</v>
@@ -13999,8 +14250,12 @@
       <c r="B38" s="211">
         <v>23</v>
       </c>
-      <c r="C38" s="212"/>
-      <c r="E38" s="212"/>
+      <c r="C38" s="494" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E38" s="494" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G38" s="209">
         <f>((E38-C38)*24)-1</f>
         <v>-1</v>
@@ -14010,8 +14265,12 @@
       <c r="B39" s="211">
         <v>24</v>
       </c>
-      <c r="C39" s="212"/>
-      <c r="E39" s="212"/>
+      <c r="C39" s="494" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E39" s="494" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G39" s="209">
         <f>((E39-C39)*24)-1</f>
         <v>-1</v>
@@ -14021,8 +14280,12 @@
       <c r="B40" s="211">
         <v>25</v>
       </c>
-      <c r="C40" s="212"/>
-      <c r="E40" s="212"/>
+      <c r="C40" s="494" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E40" s="494" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G40" s="209">
         <f>((E40-C40)*24)-1</f>
         <v>-1</v>
@@ -14032,8 +14295,12 @@
       <c r="B41" s="211">
         <v>26</v>
       </c>
-      <c r="C41" s="212"/>
-      <c r="E41" s="212"/>
+      <c r="C41" s="494" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E41" s="494" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G41" s="209">
         <f>((E41-C41)*24)-1</f>
         <v>-1</v>
@@ -14043,8 +14310,12 @@
       <c r="B42" s="211">
         <v>27</v>
       </c>
-      <c r="C42" s="212"/>
-      <c r="E42" s="212"/>
+      <c r="C42" s="494" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E42" s="494" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G42" s="209">
         <f>((E42-C42)*24)-1</f>
         <v>-1</v>
@@ -14074,8 +14345,12 @@
       <c r="B45" s="211">
         <v>30</v>
       </c>
-      <c r="C45" s="212"/>
-      <c r="E45" s="212"/>
+      <c r="C45" s="494" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E45" s="494" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G45" s="209">
         <f>((E45-C45)*24)-1</f>
         <v>-1</v>
@@ -14085,8 +14360,12 @@
       <c r="B46" s="211">
         <v>31</v>
       </c>
-      <c r="C46" s="212"/>
-      <c r="E46" s="212"/>
+      <c r="C46" s="494" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E46" s="494" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G46" s="209">
         <f>((E46-C46)*24)-1</f>
         <v>-1</v>
@@ -14181,6 +14460,7 @@
       <c r="H62" s="425"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -14197,24 +14477,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -14780,24 +15060,24 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -15367,24 +15647,24 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Boris A. Rodríguez.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Boris A. Rodríguez.xlsx
@@ -2,6 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="2022" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="1" sheetId="2" r:id="rId5"/>
@@ -17,7 +20,6 @@
     <sheet state="visible" name="11" sheetId="12" r:id="rId15"/>
     <sheet state="visible" name="12" sheetId="13" r:id="rId16"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="117">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -376,6 +378,9 @@
   </si>
   <si>
     <t>Diciembre</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1321,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="129">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1610,6 +1615,12 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="61" fillId="13" fontId="18" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2219,20 +2230,21 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:AC1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.86"/>
-    <col customWidth="1" min="2" max="8" width="6.86"/>
-    <col customWidth="1" min="9" max="9" width="2.86"/>
-    <col customWidth="1" min="10" max="16" width="6.86"/>
-    <col customWidth="1" min="17" max="17" width="2.86"/>
-    <col customWidth="1" min="18" max="24" width="6.86"/>
-    <col customWidth="1" min="25" max="25" width="10.0"/>
-    <col customWidth="1" min="26" max="26" width="6.0"/>
-    <col customWidth="1" min="27" max="29" width="21.86"/>
+    <col min="1" max="1" customWidth="true" width="2.86" collapsed="true"/>
+    <col min="2" max="8" customWidth="true" width="6.86" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.86" collapsed="true"/>
+    <col min="10" max="16" customWidth="true" width="6.86" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.86" collapsed="true"/>
+    <col min="18" max="24" customWidth="true" width="6.86" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="27" max="29" customWidth="true" width="21.86" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1">
@@ -5174,24 +5186,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -6671,24 +6684,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -8175,24 +8189,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -9671,24 +9686,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -11174,24 +11190,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -12779,24 +12796,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -14369,24 +14387,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -15982,24 +16001,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -17568,24 +17588,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -19177,24 +19198,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -20676,24 +20698,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -20868,44 +20891,56 @@
       <c r="B19" s="121">
         <v>4.0</v>
       </c>
-      <c r="C19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="G19" s="106">
-        <f t="shared" ref="G19:G23" si="1">IF((E19-C19)*24&lt;=4,(E19-C19)*24,(E19-C19)*24-1)</f>
-        <v>0</v>
+      <c r="C19" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="B20" s="121">
         <v>5.0</v>
       </c>
-      <c r="C20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="G20" s="106">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C20" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="B21" s="121">
         <v>6.0</v>
       </c>
-      <c r="C21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="G21" s="106">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C21" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="B22" s="121">
         <v>7.0</v>
       </c>
-      <c r="C22" s="126"/>
-      <c r="E22" s="126"/>
-      <c r="G22" s="106">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C22" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
@@ -20915,7 +20950,7 @@
       <c r="C23" s="126"/>
       <c r="E23" s="126"/>
       <c r="G23" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="1" ref="G23">IF((E23-C23)*24&lt;=4,(E23-C23)*24,(E23-C23)*24-1)</f>
         <v>0</v>
       </c>
     </row>
@@ -21018,55 +21053,70 @@
       <c r="B33" s="121">
         <v>18.0</v>
       </c>
-      <c r="C33" s="126"/>
-      <c r="E33" s="126"/>
-      <c r="G33" s="106">
-        <f t="shared" ref="G33:G37" si="3">IF((E33-C33)*24&lt;=4,(E33-C33)*24,(E33-C33)*24-1)</f>
-        <v>0</v>
+      <c r="C33" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="B34" s="121">
         <v>19.0</v>
       </c>
-      <c r="C34" s="126"/>
-      <c r="E34" s="126"/>
-      <c r="G34" s="106">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C34" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="B35" s="121">
         <v>20.0</v>
       </c>
-      <c r="C35" s="126"/>
-      <c r="E35" s="126"/>
-      <c r="G35" s="106">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C35" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="B36" s="121">
         <v>21.0</v>
       </c>
-      <c r="C36" s="126"/>
-      <c r="E36" s="126"/>
-      <c r="G36" s="106">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C36" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="B37" s="121">
         <v>22.0</v>
       </c>
-      <c r="C37" s="126"/>
-      <c r="E37" s="126"/>
-      <c r="G37" s="106">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C37" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
@@ -21093,22 +21143,28 @@
       <c r="B40" s="121">
         <v>25.0</v>
       </c>
-      <c r="C40" s="126"/>
-      <c r="E40" s="126"/>
-      <c r="G40" s="106">
-        <f t="shared" ref="G40:G41" si="4">IF((E40-C40)*24&lt;=4,(E40-C40)*24,(E40-C40)*24-1)</f>
-        <v>0</v>
+      <c r="C40" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="B41" s="121">
         <v>26.0</v>
       </c>
-      <c r="C41" s="126"/>
-      <c r="E41" s="126"/>
-      <c r="G41" s="106">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C41" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
@@ -22179,24 +22235,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -22415,55 +22472,70 @@
       <c r="B23" s="121">
         <v>8.0</v>
       </c>
-      <c r="C23" s="126"/>
-      <c r="E23" s="126"/>
-      <c r="G23" s="106">
-        <f t="shared" ref="G23:G27" si="2">IF((E23-C23)*24&lt;=4,(E23-C23)*24,(E23-C23)*24-1)</f>
-        <v>0</v>
+      <c r="C23" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="B24" s="121">
         <v>9.0</v>
       </c>
-      <c r="C24" s="126"/>
-      <c r="E24" s="126"/>
-      <c r="G24" s="106">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C24" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="B25" s="121">
         <v>10.0</v>
       </c>
-      <c r="C25" s="126"/>
-      <c r="E25" s="126"/>
-      <c r="G25" s="106">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C25" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="B26" s="121">
         <v>11.0</v>
       </c>
-      <c r="C26" s="126"/>
-      <c r="E26" s="126"/>
-      <c r="G26" s="106">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C26" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="B27" s="121">
         <v>12.0</v>
       </c>
-      <c r="C27" s="126"/>
-      <c r="E27" s="126"/>
-      <c r="G27" s="106">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C27" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
@@ -22564,33 +22636,42 @@
       <c r="B37" s="121">
         <v>22.0</v>
       </c>
-      <c r="C37" s="126"/>
-      <c r="E37" s="126"/>
-      <c r="G37" s="106">
-        <f t="shared" ref="G37:G41" si="4">IF((E37-C37)*24&lt;=4,(E37-C37)*24,(E37-C37)*24-1)</f>
-        <v>0</v>
+      <c r="C37" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="B38" s="121">
         <v>23.0</v>
       </c>
-      <c r="C38" s="126"/>
-      <c r="E38" s="126"/>
-      <c r="G38" s="106">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C38" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="B39" s="121">
         <v>24.0</v>
       </c>
-      <c r="C39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="G39" s="106">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C39" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
@@ -22600,7 +22681,7 @@
       <c r="C40" s="126"/>
       <c r="E40" s="126"/>
       <c r="G40" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="4" ref="G40:G41">IF((E40-C40)*24&lt;=4,(E40-C40)*24,(E40-C40)*24-1)</f>
         <v>0</v>
       </c>
     </row>
